--- a/data/data dictionary.xlsx
+++ b/data/data dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hete Rai\workspace\telcom_customer_churn_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A5C7F-03ED-4764-9EE1-DD84C70D1BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24137A5-26E8-4271-B96B-CE10E650C356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>Customer ID</t>
   </si>
@@ -183,54 +183,6 @@
     <t>Descricao</t>
   </si>
   <si>
-    <t>ID do cliente</t>
-  </si>
-  <si>
-    <t>genero</t>
-  </si>
-  <si>
-    <t>idade</t>
-  </si>
-  <si>
-    <t>idade abaixo 30</t>
-  </si>
-  <si>
-    <t>idade 65 ou mais</t>
-  </si>
-  <si>
-    <t>casado</t>
-  </si>
-  <si>
-    <t>nr de dependentes que vivem com o cliente</t>
-  </si>
-  <si>
-    <t>se tem dependentes (criancas, idosos, etc)</t>
-  </si>
-  <si>
-    <t>pais onde o cliente reside</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>cidade</t>
-  </si>
-  <si>
-    <t>latitude residencia do cliente</t>
-  </si>
-  <si>
-    <t>longitude residencia do cliente</t>
-  </si>
-  <si>
-    <t>populacao estimada de acordo com zip code</t>
-  </si>
-  <si>
-    <t>codigo postal</t>
-  </si>
-  <si>
-    <t>quarteto: q1,q2,q3,q4</t>
-  </si>
-  <si>
     <t>ja recomendou alguem a operadora</t>
   </si>
   <si>
@@ -249,9 +201,6 @@
     <t>media de cobranca de longa distancia</t>
   </si>
   <si>
-    <t>indica se o cliente tem muitos cartoes da operadora</t>
-  </si>
-  <si>
     <t>indica se o cliente usa servico de internet da operadora</t>
   </si>
   <si>
@@ -331,6 +280,45 @@
   </si>
   <si>
     <t>Tipo de internet</t>
+  </si>
+  <si>
+    <t>Customer gender</t>
+  </si>
+  <si>
+    <t>Customer age</t>
+  </si>
+  <si>
+    <t>If customer is under 30 (yes/no)</t>
+  </si>
+  <si>
+    <t>If the age of the customer is above 65</t>
+  </si>
+  <si>
+    <t>If the customer is married (yes/no)</t>
+  </si>
+  <si>
+    <t>Customer has dependents (yes/no)</t>
+  </si>
+  <si>
+    <t>Customer identification</t>
+  </si>
+  <si>
+    <t>Number of dependentes that live with the customer</t>
+  </si>
+  <si>
+    <t>Customer zip code</t>
+  </si>
+  <si>
+    <t>Latitude of customer residence</t>
+  </si>
+  <si>
+    <t>Longitude of customer residence</t>
+  </si>
+  <si>
+    <t>Qarter: q1</t>
+  </si>
+  <si>
+    <t>indica se o cliente tem muitos cartoes na mesa operadora (nao outras)</t>
   </si>
 </sst>
 </file>
@@ -702,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -734,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -742,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -750,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -758,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -766,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -774,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -782,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -790,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -798,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -806,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -814,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -822,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -830,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -838,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -846,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -854,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -862,7 +850,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -870,7 +858,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -878,7 +866,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -886,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -894,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -902,7 +890,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -910,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -918,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -926,7 +914,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -934,7 +922,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -942,7 +930,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -950,7 +938,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -958,7 +946,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -966,7 +954,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -974,7 +962,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -982,7 +970,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -990,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -998,7 +986,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -1006,7 +994,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1002,7 @@
         <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -1022,7 +1010,7 @@
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -1030,7 +1018,7 @@
         <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -1038,7 +1026,7 @@
         <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -1046,7 +1034,7 @@
         <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -1054,7 +1042,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -1062,7 +1050,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -1070,7 +1058,7 @@
         <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -1078,7 +1066,7 @@
         <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -1086,7 +1074,7 @@
         <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -1094,7 +1082,7 @@
         <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -1102,7 +1090,7 @@
         <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -1110,7 +1098,7 @@
         <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -1118,7 +1106,7 @@
         <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
